--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,16 +39,28 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>нет данных</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Начислены пени за период с 30.12.18 по 25.03.2019 - 83дня                             18791,00 х 0,1% х 43 дн = 808,01 руб.</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>начислены пени 170д</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -62,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +94,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -118,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,76 +132,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,41 +158,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,79 +486,94 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43358</v>
+        <v>43464</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>9600</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>4338</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43464</v>
+        <v>43549</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>10850</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>1250</v>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>5625</v>
+        <v>18791</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>18791</v>
+      </c>
+      <c r="H4" s="10">
+        <v>18791</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,271 +581,184 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>4950</v>
+      <c r="C5" s="9">
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f>D5*E5</f>
-        <v>1438.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43464</v>
+        <v>43750</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>11000</v>
+        <v>13600</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>150</v>
+        <f>C6-C2</f>
+        <v>2600</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f>D6*E6</f>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11674</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>14347</v>
+      </c>
+      <c r="H6" s="10">
+        <v>14347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5000</v>
+        <v>6100</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>50</v>
+        <f>C7-C3</f>
+        <v>1100</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f>D7*E7</f>
-        <v>117.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2673</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43549</v>
+        <v>43923</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>9</v>
+      <c r="C8" s="3">
+        <v>14930</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>1330</v>
       </c>
       <c r="E8" s="6">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <v>-18791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D8*E8</f>
+        <v>5971.7000000000007</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>7405.4000000000005</v>
+      </c>
+      <c r="H8" s="10">
+        <v>7405.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3">
+        <v>6690</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C7</f>
+        <v>590</v>
+      </c>
       <c r="E9" s="6">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1433.7</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43549</v>
-      </c>
-      <c r="B10" s="20" t="s">
+        <v>43923</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>40543.4</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>40543.4</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43750</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>13600</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C6</f>
-        <v>2600</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>11674</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10">
+        <v>962.7</v>
+      </c>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6100</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C7</f>
-        <v>1100</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>2673</v>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G10,G11)</f>
+        <v>41506.1</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H10,H11)</f>
+        <v>40543.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43750</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6">
-        <v>808.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>-962.69999999999709</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:D10"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>начислены пени 170д</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +165,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,12 +712,16 @@
       <c r="A10" s="4">
         <v>43923</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
+      <c r="F10" s="6">
+        <v>0</v>
       </c>
       <c r="G10" s="10">
         <f>SUM(G2:G9)</f>
@@ -723,12 +734,18 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
+      <c r="F11" s="11">
+        <v>0</v>
       </c>
       <c r="G11" s="10">
         <v>962.7</v>
@@ -736,26 +753,52 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>13</v>
+      <c r="A12" s="14">
+        <v>43963</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
       </c>
       <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>962.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
         <f>SUM(G10,G11)</f>
         <v>41506.1</v>
       </c>
-      <c r="H12" s="10">
-        <f>SUM(H10,H11)</f>
-        <v>40543.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
-        <v>-962.69999999999709</v>
+        <f>SUM(H10,H12)</f>
+        <v>41506.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="10">
+        <f>SUM(H13,-G13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Т</t>
+  </si>
+  <si>
+    <t>начислены пени 179д</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -132,11 +135,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,9 +182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -165,13 +189,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,10 +509,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,8 +569,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -553,8 +583,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -563,10 +593,10 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="6">
@@ -575,11 +605,11 @@
       <c r="F4" s="6">
         <v>18791</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>18791</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>18791</v>
       </c>
     </row>
@@ -588,7 +618,7 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="3">
@@ -601,8 +631,8 @@
         <f>D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -627,11 +657,11 @@
         <f>D6*E6</f>
         <v>11674</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>14347</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>14347</v>
       </c>
     </row>
@@ -654,8 +684,8 @@
         <f>D7*E7</f>
         <v>2673</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -678,11 +708,11 @@
         <f>D8*E8</f>
         <v>5971.7000000000007</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>SUM(F8,F9)</f>
         <v>7405.4000000000005</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>7405.4</v>
       </c>
     </row>
@@ -705,100 +735,151 @@
         <f>D9*E9</f>
         <v>1433.7</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43923</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>40543.4</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>40543.4</v>
-      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>962.7</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="14">
+        <v>43963</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>962.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C8</f>
+        <v>470</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*E12</f>
+        <v>2213.6999999999998</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>2621.7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2621.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>962.7</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>43963</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C13" s="3">
+        <v>6850</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C9</f>
+        <v>160</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f>D13*E13</f>
+        <v>408</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>962.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>469.28</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10">
-        <f>SUM(G10,G11)</f>
-        <v>41506.1</v>
-      </c>
-      <c r="H13" s="10">
-        <f>SUM(H10,H12)</f>
-        <v>41506.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="G15" s="9">
+        <f>SUM(G2:G14)</f>
+        <v>44597.079999999994</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H2:H14)</f>
+        <v>44127.799999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="10">
-        <f>SUM(H13,-G13)</f>
-        <v>0</v>
+      <c r="G16" s="2"/>
+      <c r="H16" s="15">
+        <f>SUM(G15,-H15)</f>
+        <v>469.27999999999884</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,20 @@
     <font>
       <sz val="12"/>
       <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -163,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -201,7 +215,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,10 +536,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A17" sqref="A17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,47 +865,107 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="15">
         <v>44103</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
         <v>469.28</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="A15" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>15400</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>770.7</v>
+      </c>
+      <c r="H15" s="9">
+        <v>770.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6850</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C13</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f>D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
-        <f>SUM(G2:G14)</f>
-        <v>44597.079999999994</v>
-      </c>
-      <c r="H15" s="9">
-        <f>SUM(H2:H14)</f>
-        <v>44127.799999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="G18" s="9">
+        <f>SUM(G2:G17)</f>
+        <v>45367.779999999992</v>
+      </c>
+      <c r="H18" s="9">
+        <f>SUM(H2:H17)</f>
+        <v>44898.499999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15">
-        <f>SUM(G15,-H15)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="20">
+        <f>SUM(G18,-H18)</f>
         <v>469.27999999999884</v>
       </c>
     </row>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -118,12 +118,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -177,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -200,21 +212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,6 +226,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,10 +556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,50 +786,50 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="16">
         <v>43923</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <v>962.7</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="20">
         <v>43963</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
         <v>962.7</v>
       </c>
     </row>
@@ -865,23 +885,23 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="10">
         <v>44103</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E14" s="11"/>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
         <v>469.28</v>
       </c>
       <c r="H14" s="9"/>
@@ -937,36 +957,87 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9"/>
+      <c r="A17" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16040</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>640</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>3014.4</v>
+      </c>
+      <c r="G17" s="24">
+        <f>SUM(F17,F18)</f>
+        <v>3753.9</v>
+      </c>
+      <c r="H17" s="24">
+        <v>3578.3</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7140</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C16</f>
+        <v>290</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18*E18</f>
+        <v>739.5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>45367.779999999992</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H2:H17)</f>
-        <v>44898.499999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="9">
+        <f>SUM(G2:G19)</f>
+        <v>49121.679999999993</v>
+      </c>
+      <c r="H20" s="9">
+        <f>SUM(H2:H19)</f>
+        <v>48476.799999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="20">
-        <f>SUM(G18,-H18)</f>
-        <v>469.27999999999884</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="15">
+        <f>SUM(G20,-H20)</f>
+        <v>644.87999999999738</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -559,7 +559,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>469.28</v>
+        <v>364.42</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G20" s="9">
         <f>SUM(G2:G19)</f>
-        <v>49121.679999999993</v>
+        <v>49016.819999999992</v>
       </c>
       <c r="H20" s="9">
         <f>SUM(H2:H19)</f>
@@ -1037,7 +1037,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="15">
         <f>SUM(G20,-H20)</f>
-        <v>644.87999999999738</v>
+        <v>540.0199999999968</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -118,7 +118,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -249,6 +255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,10 +563,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,36 +1015,87 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="9"/>
+      <c r="A19" s="4">
+        <v>44355</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16040</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C17</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <f>SUM(F19,F20)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>13161</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7140</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="9">
-        <f>SUM(G2:G19)</f>
+      <c r="G22" s="9">
+        <f>SUM(G2:G21)</f>
         <v>49016.819999999992</v>
       </c>
-      <c r="H20" s="9">
-        <f>SUM(H2:H19)</f>
-        <v>48476.799999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="H22" s="9">
+        <f>SUM(H2:H21)</f>
+        <v>61637.799999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="15">
-        <f>SUM(G20,-H20)</f>
-        <v>540.0199999999968</v>
+      <c r="G23" s="2"/>
+      <c r="H23" s="15">
+        <f>SUM(G22,-H22)</f>
+        <v>-12620.980000000003</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -563,10 +563,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
         <v>4.71</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" ref="F15:F20" si="0">D15*E15</f>
         <v>0</v>
       </c>
       <c r="G15" s="9">
@@ -957,7 +957,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="9"/>
@@ -981,7 +981,7 @@
         <v>4.71</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>3014.4</v>
       </c>
       <c r="G17" s="24">
@@ -1008,7 +1008,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="6">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>739.5</v>
       </c>
       <c r="G18" s="9"/>
@@ -1022,17 +1022,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>16040</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C17</f>
         <v>0</v>
       </c>
       <c r="E19" s="6">
         <v>4.71</v>
       </c>
       <c r="F19" s="6">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="25">
@@ -1049,53 +1048,101 @@
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>7140</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-C18</f>
         <v>0</v>
       </c>
       <c r="E20" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="6">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
+      <c r="A21" s="4">
+        <v>44438</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:F22" si="1">D21*E21</f>
+        <v>992</v>
+      </c>
+      <c r="G21" s="25">
+        <f>SUM(F21,F22)</f>
+        <v>1233.2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1183.5999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>241.20000000000002</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="9">
-        <f>SUM(G2:G21)</f>
-        <v>49016.819999999992</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SUM(H2:H21)</f>
-        <v>61637.799999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="9">
+        <f>SUM(G2:G23)</f>
+        <v>50250.01999999999</v>
+      </c>
+      <c r="H24" s="9">
+        <f>SUM(H2:H23)</f>
+        <v>62821.399999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="15">
-        <f>SUM(G22,-H22)</f>
-        <v>-12620.980000000003</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="15">
+        <f>SUM(G24,-H24)</f>
+        <v>-12571.380000000005</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/264ee.xlsx
+++ b/sputnik/personal/ee/264ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>начислены пени 179д</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,18 +136,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,35 +164,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,9 +201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,20 +212,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,10 +524,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,50 +754,50 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43923</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
         <v>962.7</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="15">
         <v>43963</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
         <v>962.7</v>
       </c>
     </row>
@@ -970,7 +931,7 @@
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="21">
         <v>16040</v>
       </c>
       <c r="D17" s="3">
@@ -984,11 +945,11 @@
         <f t="shared" si="0"/>
         <v>3014.4</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="19">
         <f>SUM(F17,F18)</f>
         <v>3753.9</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="19">
         <v>3578.3</v>
       </c>
     </row>
@@ -997,7 +958,7 @@
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="21">
         <v>7140</v>
       </c>
       <c r="D18" s="3">
@@ -1021,24 +982,25 @@
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
+      <c r="C19" s="21">
+        <v>18510</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <f t="shared" ref="D19:D25" si="1">SUM(C19,-C17)</f>
+        <v>2470</v>
       </c>
       <c r="E19" s="6">
         <v>4.71</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
+        <v>11633.7</v>
+      </c>
+      <c r="G19" s="20">
         <f>SUM(F19,F20)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
+        <v>14617.2</v>
+      </c>
+      <c r="H19" s="20">
         <v>13161</v>
       </c>
     </row>
@@ -1047,18 +1009,19 @@
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
+      <c r="C20" s="21">
+        <v>8310</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1170</v>
       </c>
       <c r="E20" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2983.5</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1070,24 +1033,25 @@
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
+      <c r="C21" s="21">
+        <v>18700</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="E21" s="6">
         <v>4.96</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F22" si="1">D21*E21</f>
-        <v>992</v>
-      </c>
-      <c r="G21" s="25">
+        <f t="shared" ref="F21:F24" si="2">D21*E21</f>
+        <v>942.4</v>
+      </c>
+      <c r="G21" s="19">
         <f>SUM(F21,F22)</f>
-        <v>1233.2</v>
-      </c>
-      <c r="H21" s="25">
+        <v>1183.5999999999999</v>
+      </c>
+      <c r="H21" s="19">
         <v>1183.5999999999999</v>
       </c>
     </row>
@@ -1096,53 +1060,124 @@
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
+      <c r="C22" s="21">
+        <v>8400</v>
       </c>
       <c r="D22" s="3">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E22" s="6">
         <v>2.68</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241.20000000000002</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="9"/>
+      <c r="A23" s="4">
+        <v>44523</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>18900</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
+        <v>992</v>
+      </c>
+      <c r="G23" s="19">
+        <f>SUM(F23,F24)</f>
+        <v>992</v>
+      </c>
+      <c r="H23" s="19">
+        <v>992</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>8400</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44536</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21">
+        <v>18900</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25" si="3">D25*E25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>SUM(F25,F26)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1996.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(G2:G23)</f>
-        <v>50250.01999999999</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SUM(H2:H23)</f>
-        <v>62821.399999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="9">
+        <f>SUM(G2:G25)</f>
+        <v>65809.62</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(H2:H25)</f>
+        <v>65809.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="15">
-        <f>SUM(G24,-H24)</f>
-        <v>-12571.380000000005</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="14">
+        <f>SUM(H26,-G26)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
